--- a/public/DataSet.xlsx
+++ b/public/DataSet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sozan\Desktop\employee-backend\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sozan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133B70B6-0B10-4F91-9ED2-4AA196EDD38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33536B8E-0835-4681-BF97-8ECB8E4EAEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="22116" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56D9FCF-8524-CB42-AD8B-330013A57F34}">
   <dimension ref="A1:AM210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+    <sheetView tabSelected="1" topLeftCell="T188" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/public/DataSet.xlsx
+++ b/public/DataSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sozan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33536B8E-0835-4681-BF97-8ECB8E4EAEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6B80D8-2DA8-4241-B304-EC25B98020C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="22116" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22116" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="49">
   <si>
     <t xml:space="preserve">Gynecologist </t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t xml:space="preserve">Accountant </t>
-  </si>
-  <si>
-    <t>supervisor</t>
   </si>
   <si>
     <t>Secretary</t>
@@ -544,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56D9FCF-8524-CB42-AD8B-330013A57F34}">
   <dimension ref="A1:AM210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T188" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1:AJ1048576"/>
+    <sheetView tabSelected="1" topLeftCell="W188" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AK198" sqref="AK198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13553,7 +13550,7 @@
         <v>25</v>
       </c>
       <c r="AM109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:39" x14ac:dyDescent="0.3">
@@ -13672,7 +13669,7 @@
         <v>25</v>
       </c>
       <c r="AM110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:39" x14ac:dyDescent="0.3">
@@ -13791,7 +13788,7 @@
         <v>25</v>
       </c>
       <c r="AM111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:39" x14ac:dyDescent="0.3">
@@ -13910,7 +13907,7 @@
         <v>25</v>
       </c>
       <c r="AM112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:39" x14ac:dyDescent="0.3">
@@ -14267,7 +14264,7 @@
         <v>30</v>
       </c>
       <c r="AM115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:39" x14ac:dyDescent="0.3">
@@ -14386,7 +14383,7 @@
         <v>30</v>
       </c>
       <c r="AM116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:39" x14ac:dyDescent="0.3">
@@ -14505,7 +14502,7 @@
         <v>30</v>
       </c>
       <c r="AM117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:39" x14ac:dyDescent="0.3">
@@ -14624,7 +14621,7 @@
         <v>30</v>
       </c>
       <c r="AM118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:39" x14ac:dyDescent="0.3">
@@ -23787,7 +23784,7 @@
         <v>22</v>
       </c>
       <c r="AM195" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="196" spans="1:39" x14ac:dyDescent="0.3">
@@ -24025,7 +24022,7 @@
         <v>22</v>
       </c>
       <c r="AM197" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="198" spans="1:39" x14ac:dyDescent="0.3">
@@ -24144,7 +24141,7 @@
         <v>22</v>
       </c>
       <c r="AM198" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="199" spans="1:39" x14ac:dyDescent="0.3">
@@ -24263,7 +24260,7 @@
         <v>22</v>
       </c>
       <c r="AM199" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="200" spans="1:39" x14ac:dyDescent="0.3">
@@ -24382,7 +24379,7 @@
         <v>22</v>
       </c>
       <c r="AM200" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="201" spans="1:39" x14ac:dyDescent="0.3">
@@ -24501,7 +24498,7 @@
         <v>22</v>
       </c>
       <c r="AM201" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="202" spans="1:39" x14ac:dyDescent="0.3">
@@ -24620,7 +24617,7 @@
         <v>22</v>
       </c>
       <c r="AM202" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="203" spans="1:39" x14ac:dyDescent="0.3">
@@ -24739,7 +24736,7 @@
         <v>22</v>
       </c>
       <c r="AM203" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="204" spans="1:39" x14ac:dyDescent="0.3">
@@ -24858,7 +24855,7 @@
         <v>20</v>
       </c>
       <c r="AM204" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="205" spans="1:39" x14ac:dyDescent="0.3">
@@ -24977,7 +24974,7 @@
         <v>20</v>
       </c>
       <c r="AM205" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="206" spans="1:39" x14ac:dyDescent="0.3">
@@ -25096,7 +25093,7 @@
         <v>20</v>
       </c>
       <c r="AM206" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="207" spans="1:39" x14ac:dyDescent="0.3">
@@ -25215,7 +25212,7 @@
         <v>20</v>
       </c>
       <c r="AM207" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="208" spans="1:39" x14ac:dyDescent="0.3">
@@ -25334,7 +25331,7 @@
         <v>25</v>
       </c>
       <c r="AM208" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="209" spans="1:39" x14ac:dyDescent="0.3">
@@ -25453,7 +25450,7 @@
         <v>22</v>
       </c>
       <c r="AM209" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="210" spans="1:39" x14ac:dyDescent="0.3">
@@ -25572,7 +25569,7 @@
         <v>25</v>
       </c>
       <c r="AM210" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -25596,17 +25593,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
